--- a/data/trans_orig/P1430-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Provincia-trans_orig.xlsx
@@ -755,19 +755,19 @@
         <v>3079</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8265</v>
+        <v>8340</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01072010271029129</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003434721626954469</v>
+        <v>0.003451678278474956</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02877365292949556</v>
+        <v>0.02903368528056646</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -776,19 +776,19 @@
         <v>3079</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9018</v>
+        <v>9177</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005291040703614787</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001704356201128866</v>
+        <v>0.001697836695711526</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01549598877136901</v>
+        <v>0.01576823243540222</v>
       </c>
     </row>
     <row r="5">
@@ -818,19 +818,19 @@
         <v>284166</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>278980</v>
+        <v>278905</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286258</v>
+        <v>286254</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9892798972897087</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9712263470705045</v>
+        <v>0.9709663147194335</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9965652783730455</v>
+        <v>0.9965483217215251</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>535</v>
@@ -839,19 +839,19 @@
         <v>578904</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>572965</v>
+        <v>572806</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>580991</v>
+        <v>580995</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9947089592963853</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.984504011228631</v>
+        <v>0.9842317675645977</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9982956437988711</v>
+        <v>0.9983021633042884</v>
       </c>
     </row>
     <row r="6">
@@ -943,19 +943,19 @@
         <v>4034</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1054</v>
+        <v>981</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10125</v>
+        <v>9914</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007979521413196848</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00208538532322648</v>
+        <v>0.001940865556266571</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02002833486336561</v>
+        <v>0.01961032939401372</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7405</v>
+        <v>7916</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004032118246842828</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01413890567739624</v>
+        <v>0.01511413999783066</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -985,19 +985,19 @@
         <v>6146</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2145</v>
+        <v>2134</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12441</v>
+        <v>13220</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005970848352699548</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0020841440179858</v>
+        <v>0.002073417604795921</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01208670965715697</v>
+        <v>0.01284355302839471</v>
       </c>
     </row>
     <row r="8">
@@ -1014,19 +1014,19 @@
         <v>501493</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>495402</v>
+        <v>495613</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>504473</v>
+        <v>504546</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9920204785868032</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9799716651366345</v>
+        <v>0.9803896706059865</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9979146146767736</v>
+        <v>0.9980591344437334</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>478</v>
@@ -1035,7 +1035,7 @@
         <v>521653</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>516360</v>
+        <v>515849</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>523765</v>
@@ -1044,7 +1044,7 @@
         <v>0.9959678817531572</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9858610943226038</v>
+        <v>0.9848858600021702</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1056,19 +1056,19 @@
         <v>1023146</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1016851</v>
+        <v>1016072</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1027147</v>
+        <v>1027158</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9940291516473004</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9879132903428431</v>
+        <v>0.9871564469716052</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9979158559820143</v>
+        <v>0.997926582395204</v>
       </c>
     </row>
     <row r="9">
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4717</v>
+        <v>3891</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002885844353897789</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01455542799793472</v>
+        <v>0.01200680009593082</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7900</v>
+        <v>6502</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006353315830017639</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02316445825095103</v>
+        <v>0.01906546384459554</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1202,19 +1202,19 @@
         <v>3102</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>857</v>
+        <v>934</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7935</v>
+        <v>8558</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004663828997810631</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00128815889616086</v>
+        <v>0.0014048003104558</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01193118783753486</v>
+        <v>0.0128673379319825</v>
       </c>
     </row>
     <row r="11">
@@ -1231,7 +1231,7 @@
         <v>323111</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>319329</v>
+        <v>320155</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>324046</v>
@@ -1240,7 +1240,7 @@
         <v>0.9971141556461022</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9854445720020653</v>
+        <v>0.9879931999040733</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>338853</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>333120</v>
+        <v>334518</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>341020</v>
@@ -1261,7 +1261,7 @@
         <v>0.9936466841699824</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9768355417490495</v>
+        <v>0.9809345361554045</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1273,19 +1273,19 @@
         <v>661964</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>657131</v>
+        <v>656508</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>664209</v>
+        <v>664132</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9953361710021894</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9880688121624638</v>
+        <v>0.9871326620680171</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9987118411038315</v>
+        <v>0.9985951996895442</v>
       </c>
     </row>
     <row r="12">
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6412</v>
+        <v>7370</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005682468274751153</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01714536995545004</v>
+        <v>0.01970765122536061</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1398,19 +1398,19 @@
         <v>5497</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2177</v>
+        <v>2130</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11184</v>
+        <v>12134</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01413236069505987</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005598014366954587</v>
+        <v>0.005475742243739625</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02875388860714349</v>
+        <v>0.03119596123738561</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1419,19 +1419,19 @@
         <v>7622</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3258</v>
+        <v>3218</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14154</v>
+        <v>15086</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009990308667883696</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004270194998406955</v>
+        <v>0.004217894482531426</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01855263079901307</v>
+        <v>0.01977327452090037</v>
       </c>
     </row>
     <row r="14">
@@ -1448,7 +1448,7 @@
         <v>371857</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>367570</v>
+        <v>366612</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>373982</v>
@@ -1457,7 +1457,7 @@
         <v>0.9943175317252488</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.98285463004455</v>
+        <v>0.9802923487746394</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1469,19 +1469,19 @@
         <v>383454</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>377767</v>
+        <v>376817</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>386774</v>
+        <v>386821</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9858676393049401</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9712461113928569</v>
+        <v>0.9688040387626146</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9944019856330454</v>
+        <v>0.9945242577562604</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>708</v>
@@ -1490,19 +1490,19 @@
         <v>755311</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>748779</v>
+        <v>747847</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>759675</v>
+        <v>759715</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9900096913321164</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9814473692009869</v>
+        <v>0.9802267254790969</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.995729805001593</v>
+        <v>0.9957821055174685</v>
       </c>
     </row>
     <row r="15">
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4708</v>
+        <v>5714</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005391538086675105</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02214331773776731</v>
+        <v>0.02687668747785856</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6056</v>
+        <v>5781</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002652277376791566</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01401239089152214</v>
+        <v>0.01337643364673974</v>
       </c>
     </row>
     <row r="17">
@@ -1657,7 +1657,7 @@
         <v>211472</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>207910</v>
+        <v>206904</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>212618</v>
@@ -1666,7 +1666,7 @@
         <v>0.9946084619133249</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9778566822622327</v>
+        <v>0.9731233125221413</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1691,7 +1691,7 @@
         <v>431063</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>426153</v>
+        <v>426428</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>432209</v>
@@ -1700,7 +1700,7 @@
         <v>0.9973477226232085</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9859876091084789</v>
+        <v>0.9866235663532603</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7536</v>
+        <v>7139</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007516667687349919</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02750429775977063</v>
+        <v>0.02605546503574485</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4901</v>
+        <v>4964</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.003558122347582117</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01762365176731148</v>
+        <v>0.01785070664285071</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1837,19 +1837,19 @@
         <v>3049</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9113</v>
+        <v>8281</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005522643076597004</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001789726081740259</v>
+        <v>0.001788265990281654</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01650706888930548</v>
+        <v>0.01499996248367252</v>
       </c>
     </row>
     <row r="20">
@@ -1866,7 +1866,7 @@
         <v>271922</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>266445</v>
+        <v>266842</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>273981</v>
@@ -1875,7 +1875,7 @@
         <v>0.9924833323126501</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9724957022402283</v>
+        <v>0.973944534964255</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1887,7 +1887,7 @@
         <v>277107</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>273195</v>
+        <v>273132</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>278096</v>
@@ -1896,7 +1896,7 @@
         <v>0.9964418776524179</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9823763482326885</v>
+        <v>0.9821492933571492</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1908,19 +1908,19 @@
         <v>549028</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>542964</v>
+        <v>543796</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>551089</v>
+        <v>551090</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.994477356923403</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9834929311106921</v>
+        <v>0.9850000375163274</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9982102739182597</v>
+        <v>0.9982117340097184</v>
       </c>
     </row>
     <row r="21">
@@ -2012,19 +2012,19 @@
         <v>9367</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4097</v>
+        <v>4124</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19486</v>
+        <v>20516</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01413219360811836</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006182160812968009</v>
+        <v>0.006221920868134166</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02940049721980176</v>
+        <v>0.03095416424683435</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2033,19 +2033,19 @@
         <v>4004</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10051</v>
+        <v>9945</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.005770462768281222</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001423226325557354</v>
+        <v>0.001429648487696022</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01448629495257084</v>
+        <v>0.01433342082894499</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -2054,19 +2054,19 @@
         <v>13371</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6922</v>
+        <v>7094</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24487</v>
+        <v>25618</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009855592988678812</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005102257931377701</v>
+        <v>0.005229273628694966</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01804936237922087</v>
+        <v>0.01888306577235547</v>
       </c>
     </row>
     <row r="23">
@@ -2083,19 +2083,19 @@
         <v>653421</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>643302</v>
+        <v>642272</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>658691</v>
+        <v>658664</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9858678063918817</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9705995027801981</v>
+        <v>0.9690458357531655</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9938178391870319</v>
+        <v>0.9937780791318658</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>632</v>
@@ -2104,19 +2104,19 @@
         <v>689849</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>683802</v>
+        <v>683908</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>692865</v>
+        <v>692861</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9942295372317188</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.985513705047429</v>
+        <v>0.9856665791710549</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9985767736744426</v>
+        <v>0.9985703515123039</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1243</v>
@@ -2125,19 +2125,19 @@
         <v>1343270</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1332154</v>
+        <v>1331023</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1349719</v>
+        <v>1349547</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9901444070113212</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9819506376207781</v>
+        <v>0.9811169342276449</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.994897742068622</v>
+        <v>0.994770726371305</v>
       </c>
     </row>
     <row r="24">
@@ -2229,19 +2229,19 @@
         <v>5266</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11259</v>
+        <v>11784</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006759201487310489</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002631360742624734</v>
+        <v>0.002625461597559222</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0144510088312818</v>
+        <v>0.01512554030830188</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2250,19 +2250,19 @@
         <v>4324</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1121</v>
+        <v>1138</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10867</v>
+        <v>11256</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.005256506475336895</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001362660609787369</v>
+        <v>0.001383095193628762</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01321076136068862</v>
+        <v>0.01368393235621589</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -2271,19 +2271,19 @@
         <v>9590</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4354</v>
+        <v>4379</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17956</v>
+        <v>16603</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.005987457789369289</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00271833645578332</v>
+        <v>0.00273381831677325</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01121075665365761</v>
+        <v>0.01036587211451452</v>
       </c>
     </row>
     <row r="26">
@@ -2300,19 +2300,19 @@
         <v>773832</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>767839</v>
+        <v>767314</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>777048</v>
+        <v>777053</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9932407985126895</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.98554899116872</v>
+        <v>0.9848744596916981</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9973686392573753</v>
+        <v>0.9973745384024408</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>752</v>
@@ -2321,19 +2321,19 @@
         <v>818254</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>811711</v>
+        <v>811322</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>821457</v>
+        <v>821440</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9947434935246631</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9867892386393115</v>
+        <v>0.9863160676437844</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9986373393902126</v>
+        <v>0.9986169048063712</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1464</v>
@@ -2342,19 +2342,19 @@
         <v>1592086</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1583720</v>
+        <v>1585073</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1597322</v>
+        <v>1597297</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9940125422106307</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9887892433463423</v>
+        <v>0.9896341278854855</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9972816635442168</v>
+        <v>0.9972661816832268</v>
       </c>
     </row>
     <row r="27">
@@ -2446,19 +2446,19 @@
         <v>24933</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15712</v>
+        <v>16394</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>36430</v>
+        <v>38084</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007275826301560233</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004584969957905805</v>
+        <v>0.004784030902531706</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01063091285350596</v>
+        <v>0.01111374417842103</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>21</v>
@@ -2467,19 +2467,19 @@
         <v>22172</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14680</v>
+        <v>13799</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>33069</v>
+        <v>33341</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.006236625792868268</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004129268869008402</v>
+        <v>0.00388154043684873</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.009301983138066917</v>
+        <v>0.009378400799628761</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>43</v>
@@ -2488,19 +2488,19 @@
         <v>47104</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>34229</v>
+        <v>34313</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>62276</v>
+        <v>62942</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.006746676339608119</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004902608063035363</v>
+        <v>0.004914518737385093</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.008919607183965223</v>
+        <v>0.009015010366426162</v>
       </c>
     </row>
     <row r="29">
@@ -2517,19 +2517,19 @@
         <v>3401846</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3390349</v>
+        <v>3388695</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3411067</v>
+        <v>3410385</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9927241736984398</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.989369087146494</v>
+        <v>0.9888862558215784</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9954150300420939</v>
+        <v>0.995215969097468</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3275</v>
@@ -2538,19 +2538,19 @@
         <v>3532926</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3522029</v>
+        <v>3521757</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3540418</v>
+        <v>3541299</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9937633742071317</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9906980168619332</v>
+        <v>0.990621599200371</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9958707311309916</v>
+        <v>0.9961184595631511</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6462</v>
@@ -2559,19 +2559,19 @@
         <v>6934773</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6919601</v>
+        <v>6918935</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6947648</v>
+        <v>6947564</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9932533236603919</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9910803928160348</v>
+        <v>0.990984989633574</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9950973919369648</v>
+        <v>0.995085481262615</v>
       </c>
     </row>
     <row r="30">
@@ -2907,19 +2907,19 @@
         <v>4871</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11967</v>
+        <v>12850</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01658071984937133</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004266559523712803</v>
+        <v>0.004241952297709063</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0407383491062643</v>
+        <v>0.04374346514653725</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5475</v>
+        <v>3992</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00319456273814753</v>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01896564421500491</v>
+        <v>0.01382730196415952</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -2949,19 +2949,19 @@
         <v>5793</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2239</v>
+        <v>1815</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14101</v>
+        <v>13266</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009945762650296033</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003843412099408226</v>
+        <v>0.003116815647425418</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02420854108475693</v>
+        <v>0.02277584715289902</v>
       </c>
     </row>
     <row r="5">
@@ -2978,19 +2978,19 @@
         <v>288890</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>281794</v>
+        <v>280911</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292508</v>
+        <v>292515</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9834192801506286</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9592616508937364</v>
+        <v>0.9562565348534635</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9957334404762872</v>
+        <v>0.9957580477022909</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>276</v>
@@ -2999,7 +2999,7 @@
         <v>287781</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>283228</v>
+        <v>284711</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>288703</v>
@@ -3008,7 +3008,7 @@
         <v>0.9968054372618524</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9810343557849952</v>
+        <v>0.9861726980358432</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3020,19 +3020,19 @@
         <v>576671</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>568363</v>
+        <v>569198</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>580225</v>
+        <v>580649</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.990054237349704</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9757914589152431</v>
+        <v>0.977224152847101</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9961565879005918</v>
+        <v>0.9968831843525746</v>
       </c>
     </row>
     <row r="6">
@@ -3124,19 +3124,19 @@
         <v>3231</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1020</v>
+        <v>403</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8868</v>
+        <v>8699</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006429527615976295</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002029775193945754</v>
+        <v>0.0008018538533655081</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01764453846081785</v>
+        <v>0.01730972885219091</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8332</v>
+        <v>9071</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004490205534393847</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01592878014444281</v>
+        <v>0.0173406330345753</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -3166,19 +3166,19 @@
         <v>5580</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2087</v>
+        <v>2027</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12069</v>
+        <v>12963</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005440477654789188</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002034871237448185</v>
+        <v>0.001975967212191477</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01176700399421118</v>
+        <v>0.01263831985694022</v>
       </c>
     </row>
     <row r="8">
@@ -3195,19 +3195,19 @@
         <v>499344</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>493707</v>
+        <v>493876</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>501555</v>
+        <v>502172</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9935704723840237</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9823554615391822</v>
+        <v>0.9826902711478089</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9979702248060542</v>
+        <v>0.9991981461466299</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>482</v>
@@ -3216,7 +3216,7 @@
         <v>520735</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>514752</v>
+        <v>514013</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>523084</v>
@@ -3225,7 +3225,7 @@
         <v>0.9955097944656062</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9840712198555569</v>
+        <v>0.9826593669654242</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -3237,19 +3237,19 @@
         <v>1020079</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1013590</v>
+        <v>1012696</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1023572</v>
+        <v>1023632</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9945595223452108</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9882329960057886</v>
+        <v>0.9873616801430597</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9979651287625518</v>
+        <v>0.9980240327878085</v>
       </c>
     </row>
     <row r="9">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5060</v>
+        <v>4246</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002887695290389785</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01588466581443306</v>
+        <v>0.01332921395255943</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5187</v>
+        <v>4400</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002629762083216016</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01542430626763559</v>
+        <v>0.01308457030934832</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6400</v>
+        <v>5834</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002755234298596783</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009772241497736851</v>
+        <v>0.008908551448675752</v>
       </c>
     </row>
     <row r="11">
@@ -3412,7 +3412,7 @@
         <v>317645</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>313505</v>
+        <v>314319</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318565</v>
@@ -3421,7 +3421,7 @@
         <v>0.9971123047096102</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9841153341855661</v>
+        <v>0.9866707860474401</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3433,7 +3433,7 @@
         <v>335425</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>331122</v>
+        <v>331909</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>336309</v>
@@ -3442,7 +3442,7 @@
         <v>0.997370237916784</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9845756937323651</v>
+        <v>0.9869154296906517</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3454,7 +3454,7 @@
         <v>653070</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>648474</v>
+        <v>649040</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>654874</v>
@@ -3463,7 +3463,7 @@
         <v>0.9972447657014032</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9902277585022631</v>
+        <v>0.9910914485513245</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6903</v>
+        <v>5958</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005332937622939055</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01865873559872523</v>
+        <v>0.01610435746759807</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11291</v>
+        <v>10392</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005425598152048577</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02915452254714446</v>
+        <v>0.02683237576226505</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -3600,19 +3600,19 @@
         <v>4074</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>994</v>
+        <v>977</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12483</v>
+        <v>13496</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005380327507375337</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001312632454243634</v>
+        <v>0.001289947742808296</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01648509514144262</v>
+        <v>0.01782293988944401</v>
       </c>
     </row>
     <row r="14">
@@ -3629,7 +3629,7 @@
         <v>367991</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>363061</v>
+        <v>364006</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>369964</v>
@@ -3638,7 +3638,7 @@
         <v>0.9946670623770609</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9813412644012748</v>
+        <v>0.9838956425324019</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3650,7 +3650,7 @@
         <v>385182</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>375992</v>
+        <v>376891</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>387283</v>
@@ -3659,7 +3659,7 @@
         <v>0.9945744018479514</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9708454774528558</v>
+        <v>0.973167624237735</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3671,19 +3671,19 @@
         <v>753173</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>744764</v>
+        <v>743751</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>756253</v>
+        <v>756270</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9946196724926246</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9835149048585574</v>
+        <v>0.9821770601105568</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9986873675457564</v>
+        <v>0.9987100522571917</v>
       </c>
     </row>
     <row r="15">
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6852</v>
+        <v>5934</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.008950403390174366</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0313449181345135</v>
+        <v>0.02714792736818349</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6904</v>
+        <v>6820</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004551897204737742</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0160628375855171</v>
+        <v>0.01586674299332008</v>
       </c>
     </row>
     <row r="17">
@@ -3851,7 +3851,7 @@
         <v>216631</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>211735</v>
+        <v>212653</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>218587</v>
@@ -3860,7 +3860,7 @@
         <v>0.9910495966098256</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9686550818654864</v>
+        <v>0.9728520726318165</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>427852</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>422904</v>
+        <v>422988</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>429808</v>
@@ -3881,7 +3881,7 @@
         <v>0.9954481027952623</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9839371624144829</v>
+        <v>0.9841332570066799</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -3979,16 +3979,16 @@
         <v>792</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8588</v>
+        <v>8318</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01131118661893101</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003010538108418273</v>
+        <v>0.003008343954680363</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03263954458858227</v>
+        <v>0.03161186049346257</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5009</v>
+        <v>4336</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00365016806545364</v>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01833889890181464</v>
+        <v>0.01587480414950828</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -4018,19 +4018,19 @@
         <v>3973</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10189</v>
+        <v>9910</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007409301472660665</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001946545603751063</v>
+        <v>0.001937956151095619</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01900012972492441</v>
+        <v>0.01847992505941868</v>
       </c>
     </row>
     <row r="20">
@@ -4047,7 +4047,7 @@
         <v>260147</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254535</v>
+        <v>254805</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>262331</v>
@@ -4056,10 +4056,10 @@
         <v>0.988688813381069</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9673604554114182</v>
+        <v>0.9683881395065372</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9969894618915818</v>
+        <v>0.9969916560453197</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>262</v>
@@ -4068,7 +4068,7 @@
         <v>272118</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>268106</v>
+        <v>268779</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>273115</v>
@@ -4077,7 +4077,7 @@
         <v>0.9963498319345464</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9816611010981853</v>
+        <v>0.9841251958504931</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -4089,19 +4089,19 @@
         <v>532265</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>526049</v>
+        <v>526328</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>535194</v>
+        <v>535199</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9925906985273394</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9809998702750742</v>
+        <v>0.9815200749405811</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9980534543962489</v>
+        <v>0.9980620438489044</v>
       </c>
     </row>
     <row r="21">
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12549</v>
+        <v>11309</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004604130626665533</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01911320385810673</v>
+        <v>0.01722396007598794</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5560</v>
+        <v>6908</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001990155373838848</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.008042758618327088</v>
+        <v>0.009992292067444952</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -4235,19 +4235,19 @@
         <v>4399</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11573</v>
+        <v>12694</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003263460128011098</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0008339984847102842</v>
+        <v>0.0008343066672346843</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008586086863422803</v>
+        <v>0.00941811944284388</v>
       </c>
     </row>
     <row r="23">
@@ -4264,7 +4264,7 @@
         <v>653535</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>644009</v>
+        <v>645249</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>656558</v>
@@ -4273,7 +4273,7 @@
         <v>0.9953958693733345</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9808867961418936</v>
+        <v>0.9827760399240122</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -4285,7 +4285,7 @@
         <v>689918</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>685734</v>
+        <v>684386</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>691294</v>
@@ -4294,7 +4294,7 @@
         <v>0.9980098446261612</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9919572413816728</v>
+        <v>0.990007707932555</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -4306,19 +4306,19 @@
         <v>1343453</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1336279</v>
+        <v>1335158</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1346728</v>
+        <v>1346727</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9967365398719888</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.991413913136577</v>
+        <v>0.9905818805571558</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9991660015152898</v>
+        <v>0.9991656933327654</v>
       </c>
     </row>
     <row r="24">
@@ -4410,19 +4410,19 @@
         <v>7770</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3351</v>
+        <v>3235</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16052</v>
+        <v>16229</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009979079795122556</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00430452348006289</v>
+        <v>0.004155604219846608</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02061633782939517</v>
+        <v>0.02084380901832985</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -4431,19 +4431,19 @@
         <v>3134</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7901</v>
+        <v>8574</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003793329620127831</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001210517160609432</v>
+        <v>0.001204234710052552</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.009563288204146241</v>
+        <v>0.01037839877936214</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -4452,19 +4452,19 @@
         <v>10903</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5961</v>
+        <v>5928</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20707</v>
+        <v>19343</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006794494856023808</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003714712125427218</v>
+        <v>0.003694112642315831</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01290368653330911</v>
+        <v>0.01205331099060477</v>
       </c>
     </row>
     <row r="26">
@@ -4481,19 +4481,19 @@
         <v>770813</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>762531</v>
+        <v>762354</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>775232</v>
+        <v>775348</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9900209202048774</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9793836621706048</v>
+        <v>0.9791561909816702</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9956954765199371</v>
+        <v>0.9958443957801534</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>752</v>
@@ -4502,19 +4502,19 @@
         <v>823033</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>818266</v>
+        <v>817593</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>825167</v>
+        <v>825172</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9962066703798722</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9904367117958536</v>
+        <v>0.9896216012206378</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9987894828393905</v>
+        <v>0.9987957652899474</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1495</v>
@@ -4523,19 +4523,19 @@
         <v>1593847</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1584043</v>
+        <v>1585407</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1598789</v>
+        <v>1598822</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9932055051439762</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9870963134666909</v>
+        <v>0.9879466890093952</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9962852878745727</v>
+        <v>0.9963058873576841</v>
       </c>
     </row>
     <row r="27">
@@ -4627,19 +4627,19 @@
         <v>24764</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15754</v>
+        <v>15810</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>37958</v>
+        <v>36661</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007295551730474461</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004641225848004129</v>
+        <v>0.004657654128296754</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01118258408238347</v>
+        <v>0.01080066889031176</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -4648,19 +4648,19 @@
         <v>13720</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7410</v>
+        <v>7329</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25349</v>
+        <v>23940</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003870670120778463</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002090583030439348</v>
+        <v>0.002067567253808565</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.007151419020944945</v>
+        <v>0.006754145319101038</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>34</v>
@@ -4669,19 +4669,19 @@
         <v>38483</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>27043</v>
+        <v>26719</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>54739</v>
+        <v>52543</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00554604530948016</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00389728334914467</v>
+        <v>0.00385063184972046</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.007888767466988515</v>
+        <v>0.007572283519822823</v>
       </c>
     </row>
     <row r="29">
@@ -4698,19 +4698,19 @@
         <v>3369586</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3356392</v>
+        <v>3357689</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3378596</v>
+        <v>3378540</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9927044482695255</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9888174159176163</v>
+        <v>0.9891993311096888</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9953587741519958</v>
+        <v>0.9953423458717033</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3326</v>
@@ -4719,19 +4719,19 @@
         <v>3530822</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3519193</v>
+        <v>3520602</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3537132</v>
+        <v>3537213</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9961293298792215</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9928485809790549</v>
+        <v>0.9932458546808984</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9979094169695606</v>
+        <v>0.9979324327461914</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6535</v>
@@ -4740,19 +4740,19 @@
         <v>6900409</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6884153</v>
+        <v>6886349</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6911849</v>
+        <v>6912173</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9944539546905199</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9921112325330117</v>
+        <v>0.9924277164801776</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.996102716650856</v>
+        <v>0.9961493681502795</v>
       </c>
     </row>
     <row r="30">
